--- a/Data exploration/Events_and_holidays_2016_2017.xlsx
+++ b/Data exploration/Events_and_holidays_2016_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex_\Desktop\Introduction_Data_Science\Projekt\DataScience_RM\Data exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DE5813-E0A2-4162-A71B-E56C7F01B6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32972CFA-10A0-4DBB-AA2C-3E4CE2884BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FA69751-9600-43C7-9502-F3F8BE837973}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>New Year´s Eve</t>
+  </si>
+  <si>
+    <t>Th</t>
   </si>
 </sst>
 </file>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67192308-77EB-4559-97FE-C9307B979232}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,6 +942,426 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>42737</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>42738</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>42780</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>42820</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>42820</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>42839</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>42841</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>42842</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>42864</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>42884</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>42954</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43037</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43072</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>48</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43079</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>49</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43086</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43093</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>51</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43094</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>52</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43095</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data exploration/Events_and_holidays_2016_2017.xlsx
+++ b/Data exploration/Events_and_holidays_2016_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex_\Desktop\Introduction_Data_Science\Projekt\DataScience_RM\Data exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32972CFA-10A0-4DBB-AA2C-3E4CE2884BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69AC734-D075-4D97-AA4A-9A77B9F81990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FA69751-9600-43C7-9502-F3F8BE837973}"/>
   </bookViews>
@@ -496,11 +496,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67192308-77EB-4559-97FE-C9307B979232}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
